--- a/Electronics/PickAndPlace_LaserMonitorV1.xlsx
+++ b/Electronics/PickAndPlace_LaserMonitorV1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="492">
   <si>
     <t>Designator</t>
   </si>
@@ -58,172 +58,172 @@
     <t>Add into BOM</t>
   </si>
   <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>115.824mm</t>
+  </si>
+  <si>
+    <t>122.682mm</t>
+  </si>
+  <si>
+    <t>116.524mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>120.091mm</t>
+  </si>
+  <si>
+    <t>119.796mm</t>
+  </si>
+  <si>
+    <t>119.096mm</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>131.191mm</t>
+  </si>
+  <si>
+    <t>120.523mm</t>
+  </si>
+  <si>
+    <t>131.891mm</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>123.952mm</t>
+  </si>
+  <si>
+    <t>129.032mm</t>
+  </si>
+  <si>
+    <t>124.652mm</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>150.622mm</t>
+  </si>
+  <si>
+    <t>135.636mm</t>
+  </si>
+  <si>
+    <t>149.922mm</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>120.65mm</t>
+  </si>
+  <si>
+    <t>132.334mm</t>
+  </si>
+  <si>
+    <t>119.95mm</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>92.964mm</t>
+  </si>
+  <si>
+    <t>140.208mm</t>
+  </si>
+  <si>
+    <t>140.908mm</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>161.798mm</t>
+  </si>
+  <si>
+    <t>126.746mm</t>
+  </si>
+  <si>
+    <t>161.098mm</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>145.288mm</t>
+  </si>
+  <si>
+    <t>133.604mm</t>
+  </si>
+  <si>
+    <t>132.904mm</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>134.62mm</t>
+  </si>
+  <si>
+    <t>134.366mm</t>
+  </si>
+  <si>
+    <t>133.92mm</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>159.766mm</t>
+  </si>
+  <si>
+    <t>137.922mm</t>
+  </si>
+  <si>
+    <t>138.622mm</t>
+  </si>
+  <si>
     <t>C29</t>
   </si>
   <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>115.824mm</t>
-  </si>
-  <si>
-    <t>122.682mm</t>
-  </si>
-  <si>
-    <t>116.524mm</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>120.091mm</t>
-  </si>
-  <si>
-    <t>119.796mm</t>
-  </si>
-  <si>
-    <t>119.096mm</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>131.191mm</t>
-  </si>
-  <si>
-    <t>120.523mm</t>
-  </si>
-  <si>
-    <t>131.891mm</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>123.952mm</t>
-  </si>
-  <si>
-    <t>129.032mm</t>
-  </si>
-  <si>
-    <t>124.652mm</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>150.622mm</t>
-  </si>
-  <si>
-    <t>135.636mm</t>
-  </si>
-  <si>
-    <t>149.922mm</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>120.65mm</t>
-  </si>
-  <si>
-    <t>132.334mm</t>
-  </si>
-  <si>
-    <t>119.95mm</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>92.964mm</t>
-  </si>
-  <si>
-    <t>140.208mm</t>
-  </si>
-  <si>
-    <t>140.908mm</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>161.798mm</t>
-  </si>
-  <si>
-    <t>126.746mm</t>
-  </si>
-  <si>
-    <t>161.098mm</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>145.288mm</t>
-  </si>
-  <si>
-    <t>133.604mm</t>
-  </si>
-  <si>
-    <t>132.904mm</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>134.62mm</t>
-  </si>
-  <si>
-    <t>134.366mm</t>
-  </si>
-  <si>
-    <t>133.92mm</t>
-  </si>
-  <si>
-    <t>C44</t>
-  </si>
-  <si>
-    <t>159.766mm</t>
-  </si>
-  <si>
-    <t>137.922mm</t>
-  </si>
-  <si>
-    <t>138.622mm</t>
-  </si>
-  <si>
-    <t>C45</t>
-  </si>
-  <si>
     <t>153.67mm</t>
   </si>
   <si>
     <t>152.97mm</t>
   </si>
   <si>
-    <t>C46</t>
+    <t>C26</t>
   </si>
   <si>
     <t>126.441mm</t>
@@ -235,7 +235,7 @@
     <t>127.141mm</t>
   </si>
   <si>
-    <t>C47</t>
+    <t>C27</t>
   </si>
   <si>
     <t>128.473mm</t>
@@ -247,7 +247,7 @@
     <t>129.173mm</t>
   </si>
   <si>
-    <t>C48</t>
+    <t>C25</t>
   </si>
   <si>
     <t>CL10C150JB8NNNC</t>
@@ -265,7 +265,7 @@
     <t>15pF</t>
   </si>
   <si>
-    <t>C49</t>
+    <t>C24</t>
   </si>
   <si>
     <t>121.361mm</t>
@@ -277,7 +277,7 @@
     <t>109.92mm</t>
   </si>
   <si>
-    <t>C50</t>
+    <t>C16</t>
   </si>
   <si>
     <t>127mm</t>
@@ -286,19 +286,19 @@
     <t>127.7mm</t>
   </si>
   <si>
-    <t>C51</t>
+    <t>C17</t>
   </si>
   <si>
     <t>122.936mm</t>
   </si>
   <si>
-    <t>C52</t>
+    <t>C14</t>
   </si>
   <si>
     <t>128.778mm</t>
   </si>
   <si>
-    <t>C53</t>
+    <t>C15</t>
   </si>
   <si>
     <t>131.445mm</t>
@@ -310,7 +310,7 @@
     <t>132.145mm</t>
   </si>
   <si>
-    <t>C54</t>
+    <t>C1</t>
   </si>
   <si>
     <t>CL10A106MA8NRNC</t>
@@ -325,19 +325,19 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>C55</t>
+    <t>C2</t>
   </si>
   <si>
     <t>108.966mm</t>
   </si>
   <si>
-    <t>C56</t>
+    <t>C3</t>
   </si>
   <si>
     <t>123.698mm</t>
   </si>
   <si>
-    <t>C57</t>
+    <t>C7</t>
   </si>
   <si>
     <t>98.552mm</t>
@@ -349,7 +349,7 @@
     <t>97.852mm</t>
   </si>
   <si>
-    <t>C58</t>
+    <t>C6</t>
   </si>
   <si>
     <t>96.012mm</t>
@@ -361,7 +361,7 @@
     <t>129.986mm</t>
   </si>
   <si>
-    <t>C59</t>
+    <t>C5</t>
   </si>
   <si>
     <t>109.474mm</t>
@@ -373,7 +373,7 @@
     <t>135.19mm</t>
   </si>
   <si>
-    <t>C60</t>
+    <t>C4</t>
   </si>
   <si>
     <t>107.696mm</t>
@@ -421,120 +421,120 @@
     <t>142.679mm</t>
   </si>
   <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>SRV05-4_C558418</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
+  </si>
+  <si>
+    <t>131.064mm</t>
+  </si>
+  <si>
+    <t>138.176mm</t>
+  </si>
+  <si>
+    <t>130.114mm</t>
+  </si>
+  <si>
+    <t>137.027mm</t>
+  </si>
+  <si>
+    <t>SRV05-4</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>138.43mm</t>
+  </si>
+  <si>
+    <t>156.022mm</t>
+  </si>
+  <si>
+    <t>137.281mm</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>SS34_C8678</t>
+  </si>
+  <si>
+    <t>SMA_L4.3-W2.6-LS5.2-RD</t>
+  </si>
+  <si>
+    <t>128.27mm</t>
+  </si>
+  <si>
+    <t>126.07mm</t>
+  </si>
+  <si>
+    <t>SS34</t>
+  </si>
+  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>SRV05-4_C558418</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
-  </si>
-  <si>
-    <t>131.064mm</t>
-  </si>
-  <si>
-    <t>138.176mm</t>
-  </si>
-  <si>
-    <t>130.114mm</t>
-  </si>
-  <si>
-    <t>137.027mm</t>
-  </si>
-  <si>
-    <t>SRV05-4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>138.43mm</t>
-  </si>
-  <si>
-    <t>156.022mm</t>
-  </si>
-  <si>
-    <t>137.281mm</t>
+    <t>156.21mm</t>
+  </si>
+  <si>
+    <t>94.234mm</t>
+  </si>
+  <si>
+    <t>92.034mm</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>144.78mm</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>147.574mm</t>
+  </si>
+  <si>
+    <t>118.872mm</t>
+  </si>
+  <si>
+    <t>121.072mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>159.123mm</t>
+  </si>
+  <si>
+    <t>119.011mm</t>
+  </si>
+  <si>
+    <t>121.211mm</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>137.668mm</t>
+  </si>
+  <si>
+    <t>85.344mm</t>
+  </si>
+  <si>
+    <t>136.718mm</t>
+  </si>
+  <si>
+    <t>84.195mm</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>SS34_C8678</t>
-  </si>
-  <si>
-    <t>SMA_L4.3-W2.6-LS5.2-RD</t>
-  </si>
-  <si>
-    <t>128.27mm</t>
-  </si>
-  <si>
-    <t>126.07mm</t>
-  </si>
-  <si>
-    <t>SS34</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>156.21mm</t>
-  </si>
-  <si>
-    <t>94.234mm</t>
-  </si>
-  <si>
-    <t>92.034mm</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>144.78mm</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>147.574mm</t>
-  </si>
-  <si>
-    <t>118.872mm</t>
-  </si>
-  <si>
-    <t>121.072mm</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>159.123mm</t>
-  </si>
-  <si>
-    <t>119.011mm</t>
-  </si>
-  <si>
-    <t>121.211mm</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>137.668mm</t>
-  </si>
-  <si>
-    <t>85.344mm</t>
-  </si>
-  <si>
-    <t>136.718mm</t>
-  </si>
-  <si>
-    <t>84.195mm</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
     <t>126.05mm</t>
   </si>
   <si>
@@ -559,924 +559,921 @@
     <t>144.32mm</t>
   </si>
   <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>MF-NSMF050-2</t>
+  </si>
+  <si>
+    <t>F1206</t>
+  </si>
+  <si>
+    <t>152.146mm</t>
+  </si>
+  <si>
+    <t>150.701mm</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>98.298mm</t>
+  </si>
+  <si>
+    <t>140.462mm</t>
+  </si>
+  <si>
+    <t>96.853mm</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>85.598mm</t>
+  </si>
+  <si>
+    <t>127.587mm</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>HDR-M_2.54_1x4P</t>
+  </si>
+  <si>
+    <t>HDR-TH_4P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>128.905mm</t>
+  </si>
+  <si>
+    <t>80.598mm</t>
+  </si>
+  <si>
+    <t>125.095mm</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>HDR-F_2.54_2x3</t>
+  </si>
+  <si>
+    <t>HDR-TH_6P-P2.54-V-F-R2-C3-S2.54</t>
+  </si>
+  <si>
+    <t>127.508mm</t>
+  </si>
+  <si>
+    <t>90.678mm</t>
+  </si>
+  <si>
+    <t>124.968mm</t>
+  </si>
+  <si>
+    <t>89.408mm</t>
+  </si>
+  <si>
+    <t>DS1038-15FBNSiA74-0CC</t>
+  </si>
+  <si>
+    <t>DSUB-TH_DS1038-15FBNSIA74-0CC</t>
+  </si>
+  <si>
+    <t>146.558mm</t>
+  </si>
+  <si>
+    <t>127.087mm</t>
+  </si>
+  <si>
+    <t>144.018mm</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>CMI321609X100KT</t>
+  </si>
+  <si>
+    <t>L1206</t>
+  </si>
+  <si>
+    <t>103.886mm</t>
+  </si>
+  <si>
+    <t>136.652mm</t>
+  </si>
+  <si>
+    <t>105.479mm</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED0603-RD</t>
+  </si>
+  <si>
+    <t>121.92mm</t>
+  </si>
+  <si>
+    <t>93.472mm</t>
+  </si>
+  <si>
+    <t>92.723mm</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>MMBT4403_C20069140</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>104.902mm</t>
+  </si>
+  <si>
+    <t>132.588mm</t>
+  </si>
+  <si>
+    <t>105.902mm</t>
+  </si>
+  <si>
+    <t>131.638mm</t>
+  </si>
+  <si>
+    <t>MMBT4403</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>0805W8F3900T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>149.86mm</t>
+  </si>
+  <si>
+    <t>125.73mm</t>
+  </si>
+  <si>
+    <t>150.86mm</t>
+  </si>
+  <si>
+    <t>390Ω</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>0603WAF1002T5E</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>112.911mm</t>
+  </si>
+  <si>
+    <t>126.42mm</t>
+  </si>
+  <si>
+    <t>125.667mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>0603WAF4701T5E</t>
+  </si>
+  <si>
+    <t>118.618mm</t>
+  </si>
+  <si>
+    <t>124.215mm</t>
+  </si>
+  <si>
+    <t>4.7kΩ</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>134.874mm</t>
+  </si>
+  <si>
+    <t>134.121mm</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>128.651mm</t>
+  </si>
+  <si>
+    <t>124.333mm</t>
+  </si>
+  <si>
+    <t>123.58mm</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>137.652mm</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>112.268mm</t>
+  </si>
+  <si>
+    <t>89.916mm</t>
+  </si>
+  <si>
+    <t>88.916mm</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>94.996mm</t>
+  </si>
+  <si>
+    <t>93.996mm</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>100.076mm</t>
+  </si>
+  <si>
+    <t>99.076mm</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>105.156mm</t>
+  </si>
+  <si>
+    <t>104.156mm</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>161.917mm</t>
+  </si>
+  <si>
+    <t>101.993mm</t>
+  </si>
+  <si>
+    <t>100.993mm</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>102.108mm</t>
+  </si>
+  <si>
+    <t>101.108mm</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>133.867mm</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>141.732mm</t>
+  </si>
+  <si>
+    <t>95.996mm</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>153.162mm</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>144.526mm</t>
+  </si>
+  <si>
+    <t>109.728mm</t>
+  </si>
+  <si>
+    <t>110.481mm</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>155.956mm</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>153.416mm</t>
+  </si>
+  <si>
+    <t>110.728mm</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>141.986mm</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>117.856mm</t>
+  </si>
+  <si>
+    <t>118.856mm</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>148.082mm</t>
+  </si>
+  <si>
+    <t>101.355mm</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>162.052mm</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>101.24mm</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>85.852mm</t>
+  </si>
+  <si>
+    <t>86.605mm</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>121.929mm</t>
+  </si>
+  <si>
+    <t>89.925mm</t>
+  </si>
+  <si>
+    <t>89.171mm</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>121.158mm</t>
+  </si>
+  <si>
+    <t>125.993mm</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>126.247mm</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>118.364mm</t>
+  </si>
+  <si>
+    <t>119.888mm</t>
+  </si>
+  <si>
+    <t>119.135mm</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>125.222mm</t>
+  </si>
+  <si>
+    <t>124.469mm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>0603WAF1000T5E</t>
+  </si>
+  <si>
+    <t>99.314mm</t>
+  </si>
+  <si>
+    <t>100Ω</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>97.79mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0603WAF2002T5E</t>
+  </si>
+  <si>
+    <t>102.489mm</t>
+  </si>
+  <si>
+    <t>131.581mm</t>
+  </si>
+  <si>
+    <t>20kΩ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0603WAF8201T5E</t>
+  </si>
+  <si>
+    <t>100.965mm</t>
+  </si>
+  <si>
+    <t>8.2kΩ</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SS-22F07-G100</t>
+  </si>
+  <si>
+    <t>SW-TH_6P-L16.5-W7.5-P4.0-LS2.6-TL</t>
+  </si>
+  <si>
+    <t>88.108mm</t>
+  </si>
+  <si>
+    <t>119.698mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>HX711_C6705483</t>
+  </si>
+  <si>
+    <t>SOP-16_L10.0-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>102.362mm</t>
+  </si>
+  <si>
+    <t>106.807mm</t>
+  </si>
+  <si>
+    <t>129.618mm</t>
+  </si>
+  <si>
+    <t>HX711</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>AT172-CuH-S</t>
+  </si>
+  <si>
+    <t>SOP-4_L4.6-W4.2-P2.54-LS7.1-BL</t>
+  </si>
+  <si>
+    <t>106.68mm</t>
+  </si>
+  <si>
+    <t>109.726mm</t>
+  </si>
+  <si>
+    <t>88.646mm</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>DS18B20Z</t>
+  </si>
+  <si>
+    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>137.16mm</t>
+  </si>
+  <si>
+    <t>120.015mm</t>
+  </si>
+  <si>
+    <t>134.478mm</t>
+  </si>
+  <si>
+    <t>U24</t>
+  </si>
+  <si>
+    <t>MX5052S</t>
+  </si>
+  <si>
+    <t>149.352mm</t>
+  </si>
+  <si>
+    <t>130.81mm</t>
+  </si>
+  <si>
+    <t>151.257mm</t>
+  </si>
+  <si>
+    <t>133.492mm</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>SN74LVC1T45DBVR</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>114.874mm</t>
+  </si>
+  <si>
+    <t>124.38mm</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>123.571mm</t>
+  </si>
+  <si>
+    <t>130.495mm</t>
+  </si>
+  <si>
+    <t>122.221mm</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>ATMEGA328PB-AU</t>
+  </si>
+  <si>
+    <t>TQFP-32_L7.0-W7.0-P0.80-LS9.0-BL</t>
+  </si>
+  <si>
+    <t>127.203mm</t>
+  </si>
+  <si>
+    <t>101.6mm</t>
+  </si>
+  <si>
+    <t>130.003mm</t>
+  </si>
+  <si>
+    <t>105.969mm</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>88.9mm</t>
+  </si>
+  <si>
+    <t>90.805mm</t>
+  </si>
+  <si>
+    <t>139.334mm</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>93.726mm</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>98.806mm</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>160.647mm</t>
+  </si>
+  <si>
+    <t>94.119mm</t>
+  </si>
+  <si>
+    <t>97.165mm</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>97.28mm</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>L78M05ABDT-TR</t>
+  </si>
+  <si>
+    <t>TO-252-2_L6.5-W6.1-P4.58-LS10.0-TL</t>
+  </si>
+  <si>
+    <t>142.498mm</t>
+  </si>
+  <si>
+    <t>134.285mm</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>143.256mm</t>
+  </si>
+  <si>
+    <t>103.124mm</t>
+  </si>
+  <si>
+    <t>100.078mm</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>154.686mm</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>115.572mm</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>112.774mm</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>109.867mm</t>
+  </si>
+  <si>
+    <t>112.913mm</t>
+  </si>
+  <si>
+    <t>U23</t>
+  </si>
+  <si>
+    <t>CH340C_C7464026</t>
+  </si>
+  <si>
+    <t>158.242mm</t>
+  </si>
+  <si>
+    <t>131.826mm</t>
+  </si>
+  <si>
+    <t>162.687mm</t>
+  </si>
+  <si>
+    <t>134.698mm</t>
+  </si>
+  <si>
+    <t>CH340C</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>123.125mm</t>
+  </si>
+  <si>
+    <t>119.877mm</t>
+  </si>
+  <si>
+    <t>121.775mm</t>
+  </si>
+  <si>
+    <t>120.827mm</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>125.984mm</t>
+  </si>
+  <si>
+    <t>123.002mm</t>
+  </si>
+  <si>
+    <t>124.634mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>WF100SPZ 2BG D6 AT</t>
+  </si>
+  <si>
+    <t>DIP-6_L8.5-W8.5-P2.54-LS10.2-TL</t>
+  </si>
+  <si>
+    <t>108.712mm</t>
+  </si>
+  <si>
+    <t>106.172mm</t>
+  </si>
+  <si>
+    <t>150.114mm</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X322516MLB4SI</t>
+  </si>
+  <si>
+    <t>OSC-SMD_4P-L3.2-W2.5-BL</t>
+  </si>
+  <si>
+    <t>125.763mm</t>
+  </si>
+  <si>
+    <t>110.095mm</t>
+  </si>
+  <si>
+    <t>16MHz</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>DR-9M</t>
+  </si>
+  <si>
+    <t>DR9-TH_ZHOUR_DR-9P-R</t>
+  </si>
+  <si>
+    <t>167.894mm</t>
+  </si>
+  <si>
+    <t>166.474mm</t>
+  </si>
+  <si>
+    <t>83.817mm</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>DR-9F</t>
+  </si>
+  <si>
+    <t>DR9-TH_ZHOUR_DR-9P-L</t>
+  </si>
+  <si>
+    <t>132.489mm</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
-    <t>MF-NSMF050-2</t>
-  </si>
-  <si>
-    <t>F1206</t>
-  </si>
-  <si>
-    <t>152.146mm</t>
-  </si>
-  <si>
-    <t>150.701mm</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>98.298mm</t>
-  </si>
-  <si>
-    <t>140.462mm</t>
-  </si>
-  <si>
-    <t>96.853mm</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>85.598mm</t>
-  </si>
-  <si>
-    <t>127.587mm</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>HDR-M_2.54_1x4P</t>
-  </si>
-  <si>
-    <t>HDR-TH_4P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>128.905mm</t>
-  </si>
-  <si>
-    <t>80.598mm</t>
-  </si>
-  <si>
-    <t>125.095mm</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>HDR-F_2.54_2x3</t>
-  </si>
-  <si>
-    <t>HDR-TH_6P-P2.54-V-F-R2-C3-S2.54</t>
-  </si>
-  <si>
-    <t>127.508mm</t>
-  </si>
-  <si>
-    <t>90.678mm</t>
-  </si>
-  <si>
-    <t>124.968mm</t>
-  </si>
-  <si>
-    <t>89.408mm</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>DS1038-15FBNSiA74-0CC</t>
-  </si>
-  <si>
-    <t>DSUB-TH_DS1038-15FBNSIA74-0CC</t>
-  </si>
-  <si>
-    <t>146.558mm</t>
-  </si>
-  <si>
-    <t>127.087mm</t>
-  </si>
-  <si>
-    <t>144.018mm</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>CMI321609X100KT</t>
-  </si>
-  <si>
-    <t>L1206</t>
-  </si>
-  <si>
-    <t>103.886mm</t>
-  </si>
-  <si>
-    <t>136.652mm</t>
-  </si>
-  <si>
-    <t>105.479mm</t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>LED0603-RD</t>
-  </si>
-  <si>
-    <t>121.92mm</t>
-  </si>
-  <si>
-    <t>93.472mm</t>
-  </si>
-  <si>
-    <t>92.723mm</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>MMBT4403_C20069140</t>
-  </si>
-  <si>
-    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
-  </si>
-  <si>
-    <t>104.902mm</t>
-  </si>
-  <si>
-    <t>132.588mm</t>
-  </si>
-  <si>
-    <t>105.902mm</t>
-  </si>
-  <si>
-    <t>131.638mm</t>
-  </si>
-  <si>
-    <t>MMBT4403</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>0805W8F3900T5E</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>149.86mm</t>
-  </si>
-  <si>
-    <t>125.73mm</t>
-  </si>
-  <si>
-    <t>150.86mm</t>
-  </si>
-  <si>
-    <t>390Ω</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>0603WAF1002T5E</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>112.911mm</t>
-  </si>
-  <si>
-    <t>126.42mm</t>
-  </si>
-  <si>
-    <t>125.667mm</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>0603WAF4701T5E</t>
-  </si>
-  <si>
-    <t>118.618mm</t>
-  </si>
-  <si>
-    <t>124.215mm</t>
-  </si>
-  <si>
-    <t>4.7kΩ</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>134.874mm</t>
-  </si>
-  <si>
-    <t>134.121mm</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>128.651mm</t>
-  </si>
-  <si>
-    <t>124.333mm</t>
-  </si>
-  <si>
-    <t>123.58mm</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>137.652mm</t>
+    <t>124.206mm</t>
+  </si>
+  <si>
+    <t>156.131mm</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CL31A226KAHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>117.348mm</t>
+  </si>
+  <si>
+    <t>136.075mm</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>114.808mm</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>145.611mm</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>136.837mm</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>129.667mm</t>
+  </si>
+  <si>
+    <t>130.302mm</t>
+  </si>
+  <si>
+    <t>131.055mm</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>115.307mm</t>
+  </si>
+  <si>
+    <t>131.563mm</t>
   </si>
   <si>
     <t>R23</t>
   </si>
   <si>
-    <t>112.268mm</t>
-  </si>
-  <si>
-    <t>89.916mm</t>
-  </si>
-  <si>
-    <t>88.916mm</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>94.996mm</t>
-  </si>
-  <si>
-    <t>93.996mm</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>100.076mm</t>
-  </si>
-  <si>
-    <t>99.076mm</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>105.156mm</t>
-  </si>
-  <si>
-    <t>104.156mm</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>161.917mm</t>
-  </si>
-  <si>
-    <t>101.993mm</t>
-  </si>
-  <si>
-    <t>100.993mm</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>102.108mm</t>
-  </si>
-  <si>
-    <t>101.108mm</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>133.867mm</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>141.732mm</t>
-  </si>
-  <si>
-    <t>95.996mm</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>153.162mm</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>144.526mm</t>
-  </si>
-  <si>
-    <t>109.728mm</t>
-  </si>
-  <si>
-    <t>110.481mm</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>155.956mm</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>153.416mm</t>
-  </si>
-  <si>
-    <t>110.728mm</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>141.986mm</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>117.856mm</t>
-  </si>
-  <si>
-    <t>118.856mm</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>148.082mm</t>
-  </si>
-  <si>
-    <t>101.355mm</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>162.052mm</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>101.24mm</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>85.852mm</t>
-  </si>
-  <si>
-    <t>86.605mm</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>121.929mm</t>
-  </si>
-  <si>
-    <t>89.925mm</t>
-  </si>
-  <si>
-    <t>89.171mm</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>121.158mm</t>
-  </si>
-  <si>
-    <t>125.993mm</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>126.247mm</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>118.364mm</t>
-  </si>
-  <si>
-    <t>119.888mm</t>
-  </si>
-  <si>
-    <t>119.135mm</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>125.222mm</t>
-  </si>
-  <si>
-    <t>124.469mm</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>0603WAF1000T5E</t>
-  </si>
-  <si>
-    <t>99.314mm</t>
-  </si>
-  <si>
-    <t>100Ω</t>
-  </si>
-  <si>
-    <t>R50</t>
-  </si>
-  <si>
-    <t>97.79mm</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>0603WAF2002T5E</t>
-  </si>
-  <si>
-    <t>102.489mm</t>
-  </si>
-  <si>
-    <t>131.581mm</t>
-  </si>
-  <si>
-    <t>20kΩ</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>0603WAF8201T5E</t>
-  </si>
-  <si>
-    <t>100.965mm</t>
-  </si>
-  <si>
-    <t>8.2kΩ</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SS-22F07-G100</t>
-  </si>
-  <si>
-    <t>SW-TH_6P-L16.5-W7.5-P4.0-LS2.6-TL</t>
-  </si>
-  <si>
-    <t>88.108mm</t>
-  </si>
-  <si>
-    <t>119.698mm</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>HX711_C6705483</t>
-  </si>
-  <si>
-    <t>SOP-16_L10.0-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>102.362mm</t>
-  </si>
-  <si>
-    <t>106.807mm</t>
-  </si>
-  <si>
-    <t>129.618mm</t>
-  </si>
-  <si>
-    <t>HX711</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>AT172-CuH-S</t>
-  </si>
-  <si>
-    <t>SOP-4_L4.6-W4.2-P2.54-LS7.1-BL</t>
-  </si>
-  <si>
-    <t>106.68mm</t>
-  </si>
-  <si>
-    <t>109.726mm</t>
-  </si>
-  <si>
-    <t>88.646mm</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>DS18B20Z</t>
-  </si>
-  <si>
-    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>137.16mm</t>
-  </si>
-  <si>
-    <t>120.015mm</t>
-  </si>
-  <si>
-    <t>134.478mm</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>MX5052S</t>
-  </si>
-  <si>
-    <t>149.352mm</t>
-  </si>
-  <si>
-    <t>130.81mm</t>
-  </si>
-  <si>
-    <t>151.257mm</t>
-  </si>
-  <si>
-    <t>133.492mm</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>SN74LVC1T45DBVR</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>114.874mm</t>
-  </si>
-  <si>
-    <t>124.38mm</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>123.571mm</t>
-  </si>
-  <si>
-    <t>130.495mm</t>
-  </si>
-  <si>
-    <t>122.221mm</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>ATMEGA328PB-AU</t>
-  </si>
-  <si>
-    <t>TQFP-32_L7.0-W7.0-P0.80-LS9.0-BL</t>
-  </si>
-  <si>
-    <t>127.203mm</t>
-  </si>
-  <si>
-    <t>101.6mm</t>
-  </si>
-  <si>
-    <t>130.003mm</t>
-  </si>
-  <si>
-    <t>105.969mm</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>88.9mm</t>
-  </si>
-  <si>
-    <t>90.805mm</t>
-  </si>
-  <si>
-    <t>139.334mm</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>93.726mm</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>98.806mm</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>U16</t>
-  </si>
-  <si>
-    <t>160.647mm</t>
-  </si>
-  <si>
-    <t>94.119mm</t>
-  </si>
-  <si>
-    <t>97.165mm</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>97.28mm</t>
-  </si>
-  <si>
-    <t>U18</t>
-  </si>
-  <si>
-    <t>L78M05ABDT-TR</t>
-  </si>
-  <si>
-    <t>TO-252-2_L6.5-W6.1-P4.58-LS10.0-TL</t>
-  </si>
-  <si>
-    <t>142.498mm</t>
-  </si>
-  <si>
-    <t>134.285mm</t>
-  </si>
-  <si>
-    <t>U20</t>
-  </si>
-  <si>
-    <t>143.256mm</t>
-  </si>
-  <si>
-    <t>103.124mm</t>
-  </si>
-  <si>
-    <t>100.078mm</t>
-  </si>
-  <si>
-    <t>U21</t>
-  </si>
-  <si>
-    <t>154.686mm</t>
-  </si>
-  <si>
-    <t>U22</t>
-  </si>
-  <si>
-    <t>115.572mm</t>
-  </si>
-  <si>
-    <t>U23</t>
-  </si>
-  <si>
-    <t>U24</t>
-  </si>
-  <si>
-    <t>112.774mm</t>
-  </si>
-  <si>
-    <t>U25</t>
-  </si>
-  <si>
-    <t>109.867mm</t>
-  </si>
-  <si>
-    <t>112.913mm</t>
-  </si>
-  <si>
-    <t>U26</t>
-  </si>
-  <si>
-    <t>CH340C_C7464026</t>
-  </si>
-  <si>
-    <t>158.242mm</t>
-  </si>
-  <si>
-    <t>131.826mm</t>
-  </si>
-  <si>
-    <t>162.687mm</t>
-  </si>
-  <si>
-    <t>134.698mm</t>
-  </si>
-  <si>
-    <t>CH340C</t>
-  </si>
-  <si>
-    <t>U27</t>
-  </si>
-  <si>
-    <t>123.125mm</t>
-  </si>
-  <si>
-    <t>119.877mm</t>
-  </si>
-  <si>
-    <t>121.775mm</t>
-  </si>
-  <si>
-    <t>120.827mm</t>
-  </si>
-  <si>
-    <t>U28</t>
-  </si>
-  <si>
-    <t>125.984mm</t>
-  </si>
-  <si>
-    <t>123.002mm</t>
-  </si>
-  <si>
-    <t>124.634mm</t>
-  </si>
-  <si>
-    <t>U29</t>
-  </si>
-  <si>
-    <t>WF100SPZ 2BG D6 AT</t>
-  </si>
-  <si>
-    <t>DIP-6_L8.5-W8.5-P2.54-LS10.2-TL</t>
-  </si>
-  <si>
-    <t>108.712mm</t>
-  </si>
-  <si>
-    <t>106.172mm</t>
-  </si>
-  <si>
-    <t>150.114mm</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X322516MLB4SI</t>
-  </si>
-  <si>
-    <t>OSC-SMD_4P-L3.2-W2.5-BL</t>
-  </si>
-  <si>
-    <t>125.763mm</t>
-  </si>
-  <si>
-    <t>110.095mm</t>
-  </si>
-  <si>
-    <t>16MHz</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>DR-9M</t>
-  </si>
-  <si>
-    <t>DR9-TH_ZHOUR_DR-9P-R</t>
-  </si>
-  <si>
-    <t>167.894mm</t>
-  </si>
-  <si>
-    <t>166.474mm</t>
-  </si>
-  <si>
-    <t>83.817mm</t>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>DR-9F</t>
-  </si>
-  <si>
-    <t>DR9-TH_ZHOUR_DR-9P-L</t>
-  </si>
-  <si>
-    <t>132.489mm</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>124.206mm</t>
-  </si>
-  <si>
-    <t>156.131mm</t>
-  </si>
-  <si>
-    <t>C61</t>
-  </si>
-  <si>
-    <t>CL31A226KAHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>117.348mm</t>
-  </si>
-  <si>
-    <t>136.075mm</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C62</t>
-  </si>
-  <si>
-    <t>114.808mm</t>
-  </si>
-  <si>
-    <t>C63</t>
-  </si>
-  <si>
-    <t>145.611mm</t>
-  </si>
-  <si>
-    <t>C64</t>
-  </si>
-  <si>
-    <t>136.837mm</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>129.667mm</t>
-  </si>
-  <si>
-    <t>130.302mm</t>
-  </si>
-  <si>
-    <t>131.055mm</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>115.307mm</t>
-  </si>
-  <si>
-    <t>131.563mm</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
     <t>123.825mm</t>
   </si>
   <si>
@@ -1486,10 +1483,10 @@
     <t>130.819mm</t>
   </si>
   <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>C65</t>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>C28</t>
   </si>
 </sst>
 </file>
@@ -3992,31 +3989,31 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
         <v>207</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>208</v>
-      </c>
-      <c r="C46" t="s">
-        <v>209</v>
       </c>
       <c r="D46" t="s">
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
         <v>139</v>
       </c>
       <c r="G46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" t="s">
         <v>210</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>211</v>
-      </c>
-      <c r="I46" t="s">
-        <v>212</v>
       </c>
       <c r="J46">
         <v>17</v>
@@ -4031,39 +4028,39 @@
         <v>128</v>
       </c>
       <c r="N46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
         <v>214</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>215</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>216</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>217</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" t="s">
         <v>218</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>217</v>
-      </c>
-      <c r="G47" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" t="s">
-        <v>218</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4078,7 +4075,7 @@
         <v>22</v>
       </c>
       <c r="N47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O47" t="s">
         <v>24</v>
@@ -4086,31 +4083,31 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s">
         <v>221</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>222</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>223</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>224</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" t="s">
+        <v>224</v>
+      </c>
+      <c r="H48" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" t="s">
         <v>225</v>
-      </c>
-      <c r="F48" t="s">
-        <v>224</v>
-      </c>
-      <c r="G48" t="s">
-        <v>225</v>
-      </c>
-      <c r="H48" t="s">
-        <v>224</v>
-      </c>
-      <c r="I48" t="s">
-        <v>226</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4125,7 +4122,7 @@
         <v>22</v>
       </c>
       <c r="N48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O48" t="s">
         <v>24</v>
@@ -4133,31 +4130,31 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" t="s">
         <v>227</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>228</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>229</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>230</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" t="s">
         <v>231</v>
       </c>
-      <c r="F49" t="s">
-        <v>230</v>
-      </c>
-      <c r="G49" t="s">
-        <v>231</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>232</v>
-      </c>
-      <c r="I49" t="s">
-        <v>233</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -4172,7 +4169,7 @@
         <v>22</v>
       </c>
       <c r="N49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
@@ -4180,31 +4177,31 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
         <v>235</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>236</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>237</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>238</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" t="s">
         <v>239</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>238</v>
-      </c>
-      <c r="G50" t="s">
-        <v>239</v>
-      </c>
-      <c r="H50" t="s">
-        <v>240</v>
-      </c>
-      <c r="I50" t="s">
-        <v>239</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -4219,7 +4216,7 @@
         <v>22</v>
       </c>
       <c r="N50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O50" t="s">
         <v>24</v>
@@ -4227,31 +4224,31 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" t="s">
         <v>242</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>243</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>244</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>245</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" t="s">
         <v>246</v>
-      </c>
-      <c r="F51" t="s">
-        <v>245</v>
-      </c>
-      <c r="G51" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51" t="s">
-        <v>247</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4266,7 +4263,7 @@
         <v>22</v>
       </c>
       <c r="N51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O51" t="s">
         <v>24</v>
@@ -4274,31 +4271,31 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
         <v>249</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" t="s">
         <v>250</v>
-      </c>
-      <c r="C52" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" t="s">
-        <v>251</v>
       </c>
       <c r="E52" t="s">
         <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G52" t="s">
         <v>205</v>
       </c>
       <c r="H52" t="s">
+        <v>250</v>
+      </c>
+      <c r="I52" t="s">
         <v>251</v>
-      </c>
-      <c r="I52" t="s">
-        <v>252</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -4313,7 +4310,7 @@
         <v>22</v>
       </c>
       <c r="N52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O52" t="s">
         <v>24</v>
@@ -4321,31 +4318,31 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" t="s">
         <v>254</v>
       </c>
-      <c r="B53" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" t="s">
         <v>255</v>
       </c>
-      <c r="E53" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53" t="s">
-        <v>255</v>
-      </c>
-      <c r="G53" t="s">
-        <v>224</v>
-      </c>
-      <c r="H53" t="s">
-        <v>256</v>
-      </c>
       <c r="I53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -4360,7 +4357,7 @@
         <v>22</v>
       </c>
       <c r="N53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
@@ -4368,31 +4365,31 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" t="s">
         <v>257</v>
       </c>
-      <c r="B54" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" t="s">
-        <v>244</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>258</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>257</v>
+      </c>
+      <c r="G54" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" t="s">
+        <v>257</v>
+      </c>
+      <c r="I54" t="s">
         <v>259</v>
-      </c>
-      <c r="F54" t="s">
-        <v>258</v>
-      </c>
-      <c r="G54" t="s">
-        <v>259</v>
-      </c>
-      <c r="H54" t="s">
-        <v>258</v>
-      </c>
-      <c r="I54" t="s">
-        <v>260</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -4407,7 +4404,7 @@
         <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
@@ -4415,31 +4412,31 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" t="s">
         <v>236</v>
-      </c>
-      <c r="C55" t="s">
-        <v>237</v>
       </c>
       <c r="D55" t="s">
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F55" t="s">
         <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H55" t="s">
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -4454,7 +4451,7 @@
         <v>22</v>
       </c>
       <c r="N55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -4462,31 +4459,31 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" t="s">
         <v>263</v>
       </c>
-      <c r="B56" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>264</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>263</v>
+      </c>
+      <c r="G56" t="s">
+        <v>264</v>
+      </c>
+      <c r="H56" t="s">
+        <v>263</v>
+      </c>
+      <c r="I56" t="s">
         <v>265</v>
-      </c>
-      <c r="F56" t="s">
-        <v>264</v>
-      </c>
-      <c r="G56" t="s">
-        <v>265</v>
-      </c>
-      <c r="H56" t="s">
-        <v>264</v>
-      </c>
-      <c r="I56" t="s">
-        <v>266</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -4501,7 +4498,7 @@
         <v>22</v>
       </c>
       <c r="N56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
@@ -4509,31 +4506,31 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
         <v>267</v>
       </c>
-      <c r="B57" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>263</v>
+      </c>
+      <c r="G57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" t="s">
+        <v>263</v>
+      </c>
+      <c r="I57" t="s">
         <v>268</v>
-      </c>
-      <c r="F57" t="s">
-        <v>264</v>
-      </c>
-      <c r="G57" t="s">
-        <v>268</v>
-      </c>
-      <c r="H57" t="s">
-        <v>264</v>
-      </c>
-      <c r="I57" t="s">
-        <v>269</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -4548,7 +4545,7 @@
         <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O57" t="s">
         <v>24</v>
@@ -4556,31 +4553,31 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
         <v>270</v>
       </c>
-      <c r="B58" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D58" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" t="s">
+        <v>270</v>
+      </c>
+      <c r="H58" t="s">
+        <v>263</v>
+      </c>
+      <c r="I58" t="s">
         <v>271</v>
-      </c>
-      <c r="F58" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" t="s">
-        <v>271</v>
-      </c>
-      <c r="H58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I58" t="s">
-        <v>272</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -4595,7 +4592,7 @@
         <v>22</v>
       </c>
       <c r="N58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
@@ -4603,31 +4600,31 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
         <v>273</v>
       </c>
-      <c r="B59" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" t="s">
-        <v>237</v>
-      </c>
-      <c r="D59" t="s">
-        <v>264</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>263</v>
+      </c>
+      <c r="G59" t="s">
+        <v>273</v>
+      </c>
+      <c r="H59" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" t="s">
         <v>274</v>
-      </c>
-      <c r="F59" t="s">
-        <v>264</v>
-      </c>
-      <c r="G59" t="s">
-        <v>274</v>
-      </c>
-      <c r="H59" t="s">
-        <v>264</v>
-      </c>
-      <c r="I59" t="s">
-        <v>275</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -4642,7 +4639,7 @@
         <v>22</v>
       </c>
       <c r="N59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O59" t="s">
         <v>24</v>
@@ -4650,31 +4647,31 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" t="s">
         <v>276</v>
       </c>
-      <c r="B60" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" t="s">
-        <v>237</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>277</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>276</v>
+      </c>
+      <c r="G60" t="s">
+        <v>277</v>
+      </c>
+      <c r="H60" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" t="s">
         <v>278</v>
-      </c>
-      <c r="F60" t="s">
-        <v>277</v>
-      </c>
-      <c r="G60" t="s">
-        <v>278</v>
-      </c>
-      <c r="H60" t="s">
-        <v>277</v>
-      </c>
-      <c r="I60" t="s">
-        <v>279</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -4689,7 +4686,7 @@
         <v>22</v>
       </c>
       <c r="N60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
@@ -4697,31 +4694,31 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" t="s">
         <v>236</v>
-      </c>
-      <c r="C61" t="s">
-        <v>237</v>
       </c>
       <c r="D61" t="s">
         <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F61" t="s">
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H61" t="s">
         <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -4736,7 +4733,7 @@
         <v>22</v>
       </c>
       <c r="N61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O61" t="s">
         <v>24</v>
@@ -4744,31 +4741,31 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" t="s">
         <v>283</v>
       </c>
-      <c r="B62" t="s">
-        <v>284</v>
-      </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" t="s">
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F62" t="s">
         <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J62">
         <v>2</v>
@@ -4783,7 +4780,7 @@
         <v>22</v>
       </c>
       <c r="N62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O62" t="s">
         <v>24</v>
@@ -4791,31 +4788,31 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" t="s">
         <v>287</v>
       </c>
-      <c r="B63" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" t="s">
+        <v>287</v>
+      </c>
+      <c r="G63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63" t="s">
+        <v>287</v>
+      </c>
+      <c r="I63" t="s">
         <v>288</v>
-      </c>
-      <c r="E63" t="s">
-        <v>268</v>
-      </c>
-      <c r="F63" t="s">
-        <v>288</v>
-      </c>
-      <c r="G63" t="s">
-        <v>268</v>
-      </c>
-      <c r="H63" t="s">
-        <v>288</v>
-      </c>
-      <c r="I63" t="s">
-        <v>289</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -4830,7 +4827,7 @@
         <v>22</v>
       </c>
       <c r="N63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O63" t="s">
         <v>24</v>
@@ -4838,31 +4835,31 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" t="s">
         <v>290</v>
       </c>
-      <c r="B64" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" t="s">
-        <v>291</v>
-      </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -4877,7 +4874,7 @@
         <v>22</v>
       </c>
       <c r="N64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O64" t="s">
         <v>24</v>
@@ -4885,31 +4882,31 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
         <v>292</v>
       </c>
-      <c r="B65" t="s">
-        <v>243</v>
-      </c>
-      <c r="C65" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>293</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" t="s">
+        <v>293</v>
+      </c>
+      <c r="H65" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" t="s">
         <v>294</v>
-      </c>
-      <c r="F65" t="s">
-        <v>293</v>
-      </c>
-      <c r="G65" t="s">
-        <v>294</v>
-      </c>
-      <c r="H65" t="s">
-        <v>293</v>
-      </c>
-      <c r="I65" t="s">
-        <v>295</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -4924,7 +4921,7 @@
         <v>22</v>
       </c>
       <c r="N65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O65" t="s">
         <v>24</v>
@@ -4932,31 +4929,31 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" t="s">
         <v>296</v>
       </c>
-      <c r="B66" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" t="s">
-        <v>297</v>
-      </c>
       <c r="E66" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" t="s">
+        <v>296</v>
+      </c>
+      <c r="G66" t="s">
+        <v>293</v>
+      </c>
+      <c r="H66" t="s">
+        <v>296</v>
+      </c>
+      <c r="I66" t="s">
         <v>294</v>
-      </c>
-      <c r="F66" t="s">
-        <v>297</v>
-      </c>
-      <c r="G66" t="s">
-        <v>294</v>
-      </c>
-      <c r="H66" t="s">
-        <v>297</v>
-      </c>
-      <c r="I66" t="s">
-        <v>295</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -4971,7 +4968,7 @@
         <v>22</v>
       </c>
       <c r="N66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O66" t="s">
         <v>24</v>
@@ -4979,31 +4976,31 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" t="s">
         <v>298</v>
       </c>
-      <c r="B67" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" t="s">
-        <v>237</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>293</v>
+      </c>
+      <c r="F67" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" t="s">
+        <v>298</v>
+      </c>
+      <c r="I67" t="s">
         <v>299</v>
-      </c>
-      <c r="E67" t="s">
-        <v>294</v>
-      </c>
-      <c r="F67" t="s">
-        <v>299</v>
-      </c>
-      <c r="G67" t="s">
-        <v>294</v>
-      </c>
-      <c r="H67" t="s">
-        <v>299</v>
-      </c>
-      <c r="I67" t="s">
-        <v>300</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -5018,7 +5015,7 @@
         <v>22</v>
       </c>
       <c r="N67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O67" t="s">
         <v>24</v>
@@ -5026,31 +5023,31 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" t="s">
         <v>301</v>
       </c>
-      <c r="B68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" t="s">
-        <v>237</v>
-      </c>
-      <c r="D68" t="s">
-        <v>302</v>
-      </c>
       <c r="E68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -5065,7 +5062,7 @@
         <v>22</v>
       </c>
       <c r="N68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O68" t="s">
         <v>24</v>
@@ -5073,31 +5070,31 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B69" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" t="s">
         <v>236</v>
-      </c>
-      <c r="C69" t="s">
-        <v>237</v>
       </c>
       <c r="D69" t="s">
         <v>38</v>
       </c>
       <c r="E69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F69" t="s">
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H69" t="s">
         <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -5112,7 +5109,7 @@
         <v>22</v>
       </c>
       <c r="N69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O69" t="s">
         <v>24</v>
@@ -5120,31 +5117,31 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" t="s">
         <v>306</v>
       </c>
-      <c r="B70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" t="s">
+        <v>280</v>
+      </c>
+      <c r="H70" t="s">
+        <v>306</v>
+      </c>
+      <c r="I70" t="s">
         <v>307</v>
-      </c>
-      <c r="E70" t="s">
-        <v>281</v>
-      </c>
-      <c r="F70" t="s">
-        <v>307</v>
-      </c>
-      <c r="G70" t="s">
-        <v>281</v>
-      </c>
-      <c r="H70" t="s">
-        <v>307</v>
-      </c>
-      <c r="I70" t="s">
-        <v>308</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -5159,7 +5156,7 @@
         <v>22</v>
       </c>
       <c r="N70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O70" t="s">
         <v>24</v>
@@ -5167,31 +5164,31 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
         <v>309</v>
       </c>
-      <c r="B71" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" t="s">
-        <v>310</v>
-      </c>
       <c r="E71" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" t="s">
+        <v>309</v>
+      </c>
+      <c r="G71" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" t="s">
+        <v>309</v>
+      </c>
+      <c r="I71" t="s">
         <v>304</v>
-      </c>
-      <c r="F71" t="s">
-        <v>310</v>
-      </c>
-      <c r="G71" t="s">
-        <v>304</v>
-      </c>
-      <c r="H71" t="s">
-        <v>310</v>
-      </c>
-      <c r="I71" t="s">
-        <v>305</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -5206,7 +5203,7 @@
         <v>22</v>
       </c>
       <c r="N71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O71" t="s">
         <v>24</v>
@@ -5214,31 +5211,31 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" t="s">
         <v>243</v>
-      </c>
-      <c r="C72" t="s">
-        <v>244</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F72" t="s">
         <v>165</v>
       </c>
       <c r="G72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H72" t="s">
         <v>165</v>
       </c>
       <c r="I72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -5253,7 +5250,7 @@
         <v>22</v>
       </c>
       <c r="N72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O72" t="s">
         <v>24</v>
@@ -5261,31 +5258,31 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>312</v>
+      </c>
+      <c r="B73" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" t="s">
         <v>313</v>
       </c>
-      <c r="B73" t="s">
-        <v>243</v>
-      </c>
-      <c r="C73" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>230</v>
+      </c>
+      <c r="G73" t="s">
+        <v>313</v>
+      </c>
+      <c r="H73" t="s">
+        <v>230</v>
+      </c>
+      <c r="I73" t="s">
         <v>314</v>
-      </c>
-      <c r="F73" t="s">
-        <v>231</v>
-      </c>
-      <c r="G73" t="s">
-        <v>314</v>
-      </c>
-      <c r="H73" t="s">
-        <v>231</v>
-      </c>
-      <c r="I73" t="s">
-        <v>315</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -5300,7 +5297,7 @@
         <v>22</v>
       </c>
       <c r="N73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O73" t="s">
         <v>24</v>
@@ -5308,31 +5305,31 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" t="s">
         <v>316</v>
       </c>
-      <c r="B74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>317</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>316</v>
+      </c>
+      <c r="G74" t="s">
+        <v>317</v>
+      </c>
+      <c r="H74" t="s">
+        <v>316</v>
+      </c>
+      <c r="I74" t="s">
         <v>318</v>
-      </c>
-      <c r="F74" t="s">
-        <v>317</v>
-      </c>
-      <c r="G74" t="s">
-        <v>318</v>
-      </c>
-      <c r="H74" t="s">
-        <v>317</v>
-      </c>
-      <c r="I74" t="s">
-        <v>319</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -5347,7 +5344,7 @@
         <v>22</v>
       </c>
       <c r="N74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O74" t="s">
         <v>24</v>
@@ -5355,31 +5352,31 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>319</v>
+      </c>
+      <c r="B75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" t="s">
         <v>320</v>
-      </c>
-      <c r="B75" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" t="s">
-        <v>321</v>
       </c>
       <c r="E75" t="s">
         <v>51</v>
       </c>
       <c r="F75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G75" t="s">
         <v>51</v>
       </c>
       <c r="H75" t="s">
+        <v>320</v>
+      </c>
+      <c r="I75" t="s">
         <v>321</v>
-      </c>
-      <c r="I75" t="s">
-        <v>322</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -5394,7 +5391,7 @@
         <v>22</v>
       </c>
       <c r="N75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O75" t="s">
         <v>24</v>
@@ -5402,13 +5399,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" t="s">
         <v>243</v>
-      </c>
-      <c r="C76" t="s">
-        <v>244</v>
       </c>
       <c r="D76" t="s">
         <v>89</v>
@@ -5423,7 +5420,7 @@
         <v>162</v>
       </c>
       <c r="H76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I76" t="s">
         <v>162</v>
@@ -5441,7 +5438,7 @@
         <v>22</v>
       </c>
       <c r="N76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O76" t="s">
         <v>24</v>
@@ -5449,31 +5446,31 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>324</v>
+      </c>
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" t="s">
         <v>325</v>
       </c>
-      <c r="B77" t="s">
-        <v>250</v>
-      </c>
-      <c r="C77" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>326</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77" t="s">
+        <v>326</v>
+      </c>
+      <c r="H77" t="s">
+        <v>325</v>
+      </c>
+      <c r="I77" t="s">
         <v>327</v>
-      </c>
-      <c r="F77" t="s">
-        <v>326</v>
-      </c>
-      <c r="G77" t="s">
-        <v>327</v>
-      </c>
-      <c r="H77" t="s">
-        <v>326</v>
-      </c>
-      <c r="I77" t="s">
-        <v>328</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -5488,7 +5485,7 @@
         <v>22</v>
       </c>
       <c r="N77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O77" t="s">
         <v>24</v>
@@ -5496,31 +5493,31 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s">
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F78" t="s">
         <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H78" t="s">
         <v>51</v>
       </c>
       <c r="I78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -5535,7 +5532,7 @@
         <v>22</v>
       </c>
       <c r="N78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O78" t="s">
         <v>24</v>
@@ -5543,31 +5540,31 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" t="s">
         <v>332</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" t="s">
         <v>333</v>
       </c>
-      <c r="C79" t="s">
-        <v>244</v>
-      </c>
-      <c r="D79" t="s">
-        <v>334</v>
-      </c>
       <c r="E79" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" t="s">
+        <v>333</v>
+      </c>
+      <c r="G79" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" t="s">
+        <v>333</v>
+      </c>
+      <c r="I79" t="s">
         <v>255</v>
-      </c>
-      <c r="F79" t="s">
-        <v>334</v>
-      </c>
-      <c r="G79" t="s">
-        <v>255</v>
-      </c>
-      <c r="H79" t="s">
-        <v>334</v>
-      </c>
-      <c r="I79" t="s">
-        <v>256</v>
       </c>
       <c r="J79">
         <v>2</v>
@@ -5582,7 +5579,7 @@
         <v>22</v>
       </c>
       <c r="N79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O79" t="s">
         <v>24</v>
@@ -5590,31 +5587,31 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" t="s">
         <v>336</v>
       </c>
-      <c r="B80" t="s">
-        <v>333</v>
-      </c>
-      <c r="C80" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" t="s">
-        <v>337</v>
-      </c>
       <c r="E80" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" t="s">
+        <v>336</v>
+      </c>
+      <c r="G80" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" t="s">
+        <v>336</v>
+      </c>
+      <c r="I80" t="s">
         <v>255</v>
-      </c>
-      <c r="F80" t="s">
-        <v>337</v>
-      </c>
-      <c r="G80" t="s">
-        <v>255</v>
-      </c>
-      <c r="H80" t="s">
-        <v>337</v>
-      </c>
-      <c r="I80" t="s">
-        <v>256</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -5629,7 +5626,7 @@
         <v>22</v>
       </c>
       <c r="N80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O80" t="s">
         <v>24</v>
@@ -5637,31 +5634,31 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" t="s">
         <v>338</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" t="s">
         <v>339</v>
-      </c>
-      <c r="C81" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" t="s">
-        <v>340</v>
       </c>
       <c r="E81" t="s">
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
       </c>
       <c r="H81" t="s">
+        <v>339</v>
+      </c>
+      <c r="I81" t="s">
         <v>340</v>
-      </c>
-      <c r="I81" t="s">
-        <v>341</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -5676,7 +5673,7 @@
         <v>22</v>
       </c>
       <c r="N81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O81" t="s">
         <v>24</v>
@@ -5684,31 +5681,31 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>342</v>
+      </c>
+      <c r="B82" t="s">
         <v>343</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" t="s">
         <v>344</v>
-      </c>
-      <c r="C82" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82" t="s">
-        <v>345</v>
       </c>
       <c r="E82" t="s">
         <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G82" t="s">
         <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J82">
         <v>2</v>
@@ -5723,7 +5720,7 @@
         <v>22</v>
       </c>
       <c r="N82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O82" t="s">
         <v>24</v>
@@ -5731,13 +5728,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>346</v>
+      </c>
+      <c r="B83" t="s">
         <v>347</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>348</v>
-      </c>
-      <c r="C83" t="s">
-        <v>349</v>
       </c>
       <c r="D83" t="s">
         <v>206</v>
@@ -5752,10 +5749,10 @@
         <v>107</v>
       </c>
       <c r="H83" t="s">
+        <v>349</v>
+      </c>
+      <c r="I83" t="s">
         <v>350</v>
-      </c>
-      <c r="I83" t="s">
-        <v>351</v>
       </c>
       <c r="J83">
         <v>8</v>
@@ -5770,7 +5767,7 @@
         <v>128</v>
       </c>
       <c r="N83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O83" t="s">
         <v>24</v>
@@ -5778,31 +5775,31 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" t="s">
         <v>352</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>353</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>354</v>
-      </c>
-      <c r="D84" t="s">
-        <v>355</v>
       </c>
       <c r="E84" t="s">
         <v>51</v>
       </c>
       <c r="F84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G84" t="s">
         <v>51</v>
       </c>
       <c r="H84" t="s">
+        <v>355</v>
+      </c>
+      <c r="I84" t="s">
         <v>356</v>
-      </c>
-      <c r="I84" t="s">
-        <v>357</v>
       </c>
       <c r="J84">
         <v>16</v>
@@ -5817,7 +5814,7 @@
         <v>22</v>
       </c>
       <c r="N84" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O84" t="s">
         <v>24</v>
@@ -5825,31 +5822,31 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" t="s">
         <v>359</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>360</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>361</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>264</v>
+      </c>
+      <c r="F85" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85" t="s">
+        <v>264</v>
+      </c>
+      <c r="H85" t="s">
         <v>362</v>
       </c>
-      <c r="E85" t="s">
-        <v>265</v>
-      </c>
-      <c r="F85" t="s">
-        <v>362</v>
-      </c>
-      <c r="G85" t="s">
-        <v>265</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>363</v>
-      </c>
-      <c r="I85" t="s">
-        <v>364</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -5864,7 +5861,7 @@
         <v>22</v>
       </c>
       <c r="N85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O85" t="s">
         <v>24</v>
@@ -5872,31 +5869,31 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>364</v>
+      </c>
+      <c r="B86" t="s">
         <v>365</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>366</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" t="s">
         <v>367</v>
       </c>
-      <c r="D86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" t="s">
+        <v>367</v>
+      </c>
+      <c r="H86" t="s">
         <v>368</v>
       </c>
-      <c r="F86" t="s">
-        <v>224</v>
-      </c>
-      <c r="G86" t="s">
-        <v>368</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>369</v>
-      </c>
-      <c r="I86" t="s">
-        <v>370</v>
       </c>
       <c r="J86">
         <v>8</v>
@@ -5911,7 +5908,7 @@
         <v>22</v>
       </c>
       <c r="N86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O86" t="s">
         <v>24</v>
@@ -5919,31 +5916,31 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>370</v>
+      </c>
+      <c r="B87" t="s">
         <v>371</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>366</v>
+      </c>
+      <c r="D87" t="s">
         <v>372</v>
       </c>
-      <c r="C87" t="s">
-        <v>367</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>373</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
+        <v>372</v>
+      </c>
+      <c r="G87" t="s">
+        <v>373</v>
+      </c>
+      <c r="H87" t="s">
         <v>374</v>
       </c>
-      <c r="F87" t="s">
-        <v>373</v>
-      </c>
-      <c r="G87" t="s">
-        <v>374</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>375</v>
-      </c>
-      <c r="I87" t="s">
-        <v>376</v>
       </c>
       <c r="J87">
         <v>8</v>
@@ -5958,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="N87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O87" t="s">
         <v>24</v>
@@ -5966,31 +5963,31 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" t="s">
         <v>377</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>378</v>
-      </c>
-      <c r="C88" t="s">
-        <v>379</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
+        <v>379</v>
+      </c>
+      <c r="I88" t="s">
         <v>380</v>
-      </c>
-      <c r="I88" t="s">
-        <v>381</v>
       </c>
       <c r="J88">
         <v>6</v>
@@ -6005,7 +6002,7 @@
         <v>22</v>
       </c>
       <c r="N88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O88" t="s">
         <v>24</v>
@@ -6013,31 +6010,31 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" t="s">
         <v>378</v>
-      </c>
-      <c r="C89" t="s">
-        <v>379</v>
       </c>
       <c r="D89" t="s">
         <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F89" t="s">
         <v>96</v>
       </c>
       <c r="G89" t="s">
+        <v>382</v>
+      </c>
+      <c r="H89" t="s">
         <v>383</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>384</v>
-      </c>
-      <c r="I89" t="s">
-        <v>385</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -6052,7 +6049,7 @@
         <v>22</v>
       </c>
       <c r="N89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O89" t="s">
         <v>24</v>
@@ -6060,31 +6057,31 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>385</v>
+      </c>
+      <c r="B90" t="s">
         <v>386</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>387</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>388</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>389</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
+        <v>388</v>
+      </c>
+      <c r="G90" t="s">
+        <v>389</v>
+      </c>
+      <c r="H90" t="s">
         <v>390</v>
       </c>
-      <c r="F90" t="s">
-        <v>389</v>
-      </c>
-      <c r="G90" t="s">
-        <v>390</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>391</v>
-      </c>
-      <c r="I90" t="s">
-        <v>392</v>
       </c>
       <c r="J90">
         <v>32</v>
@@ -6099,7 +6096,7 @@
         <v>22</v>
       </c>
       <c r="N90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O90" t="s">
         <v>24</v>
@@ -6107,31 +6104,31 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>392</v>
+      </c>
+      <c r="B91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" t="s">
         <v>393</v>
       </c>
-      <c r="B91" t="s">
-        <v>372</v>
-      </c>
-      <c r="C91" t="s">
-        <v>367</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
+        <v>217</v>
+      </c>
+      <c r="F91" t="s">
+        <v>393</v>
+      </c>
+      <c r="G91" t="s">
+        <v>217</v>
+      </c>
+      <c r="H91" t="s">
         <v>394</v>
       </c>
-      <c r="E91" t="s">
-        <v>218</v>
-      </c>
-      <c r="F91" t="s">
-        <v>394</v>
-      </c>
-      <c r="G91" t="s">
-        <v>218</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>395</v>
-      </c>
-      <c r="I91" t="s">
-        <v>396</v>
       </c>
       <c r="J91">
         <v>8</v>
@@ -6146,7 +6143,7 @@
         <v>22</v>
       </c>
       <c r="N91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O91" t="s">
         <v>24</v>
@@ -6154,31 +6151,31 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>396</v>
+      </c>
+      <c r="B92" t="s">
+        <v>359</v>
+      </c>
+      <c r="C92" t="s">
+        <v>360</v>
+      </c>
+      <c r="D92" t="s">
+        <v>361</v>
+      </c>
+      <c r="E92" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" t="s">
+        <v>361</v>
+      </c>
+      <c r="G92" t="s">
+        <v>267</v>
+      </c>
+      <c r="H92" t="s">
+        <v>362</v>
+      </c>
+      <c r="I92" t="s">
         <v>397</v>
-      </c>
-      <c r="B92" t="s">
-        <v>360</v>
-      </c>
-      <c r="C92" t="s">
-        <v>361</v>
-      </c>
-      <c r="D92" t="s">
-        <v>362</v>
-      </c>
-      <c r="E92" t="s">
-        <v>268</v>
-      </c>
-      <c r="F92" t="s">
-        <v>362</v>
-      </c>
-      <c r="G92" t="s">
-        <v>268</v>
-      </c>
-      <c r="H92" t="s">
-        <v>363</v>
-      </c>
-      <c r="I92" t="s">
-        <v>398</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -6193,7 +6190,7 @@
         <v>22</v>
       </c>
       <c r="N92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O92" t="s">
         <v>24</v>
@@ -6201,31 +6198,31 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" t="s">
+        <v>361</v>
+      </c>
+      <c r="E93" t="s">
+        <v>270</v>
+      </c>
+      <c r="F93" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
+      <c r="H93" t="s">
+        <v>362</v>
+      </c>
+      <c r="I93" t="s">
         <v>399</v>
-      </c>
-      <c r="B93" t="s">
-        <v>360</v>
-      </c>
-      <c r="C93" t="s">
-        <v>361</v>
-      </c>
-      <c r="D93" t="s">
-        <v>362</v>
-      </c>
-      <c r="E93" t="s">
-        <v>271</v>
-      </c>
-      <c r="F93" t="s">
-        <v>362</v>
-      </c>
-      <c r="G93" t="s">
-        <v>271</v>
-      </c>
-      <c r="H93" t="s">
-        <v>363</v>
-      </c>
-      <c r="I93" t="s">
-        <v>400</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -6240,7 +6237,7 @@
         <v>22</v>
       </c>
       <c r="N93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O93" t="s">
         <v>24</v>
@@ -6248,31 +6245,31 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B94" t="s">
+        <v>359</v>
+      </c>
+      <c r="C94" t="s">
         <v>360</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>361</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
+        <v>273</v>
+      </c>
+      <c r="F94" t="s">
+        <v>361</v>
+      </c>
+      <c r="G94" t="s">
+        <v>273</v>
+      </c>
+      <c r="H94" t="s">
         <v>362</v>
       </c>
-      <c r="E94" t="s">
-        <v>274</v>
-      </c>
-      <c r="F94" t="s">
-        <v>362</v>
-      </c>
-      <c r="G94" t="s">
-        <v>274</v>
-      </c>
-      <c r="H94" t="s">
-        <v>363</v>
-      </c>
       <c r="I94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J94">
         <v>4</v>
@@ -6287,7 +6284,7 @@
         <v>22</v>
       </c>
       <c r="N94" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O94" t="s">
         <v>24</v>
@@ -6295,31 +6292,31 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>401</v>
+      </c>
+      <c r="B95" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" t="s">
         <v>402</v>
       </c>
-      <c r="B95" t="s">
-        <v>360</v>
-      </c>
-      <c r="C95" t="s">
-        <v>361</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>403</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
+        <v>402</v>
+      </c>
+      <c r="G95" t="s">
+        <v>403</v>
+      </c>
+      <c r="H95" t="s">
+        <v>276</v>
+      </c>
+      <c r="I95" t="s">
         <v>404</v>
-      </c>
-      <c r="F95" t="s">
-        <v>403</v>
-      </c>
-      <c r="G95" t="s">
-        <v>404</v>
-      </c>
-      <c r="H95" t="s">
-        <v>277</v>
-      </c>
-      <c r="I95" t="s">
-        <v>405</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -6334,7 +6331,7 @@
         <v>22</v>
       </c>
       <c r="N95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O95" t="s">
         <v>24</v>
@@ -6342,22 +6339,22 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B96" t="s">
+        <v>359</v>
+      </c>
+      <c r="C96" t="s">
         <v>360</v>
       </c>
-      <c r="C96" t="s">
-        <v>361</v>
-      </c>
       <c r="D96" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E96" t="s">
         <v>156</v>
       </c>
       <c r="F96" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G96" t="s">
         <v>156</v>
@@ -6366,7 +6363,7 @@
         <v>38</v>
       </c>
       <c r="I96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J96">
         <v>4</v>
@@ -6381,7 +6378,7 @@
         <v>22</v>
       </c>
       <c r="N96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O96" t="s">
         <v>24</v>
@@ -6389,31 +6386,31 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>407</v>
+      </c>
+      <c r="B97" t="s">
         <v>408</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>409</v>
-      </c>
-      <c r="C97" t="s">
-        <v>410</v>
       </c>
       <c r="D97" t="s">
         <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F97" t="s">
         <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H97" t="s">
+        <v>410</v>
+      </c>
+      <c r="I97" t="s">
         <v>411</v>
-      </c>
-      <c r="I97" t="s">
-        <v>412</v>
       </c>
       <c r="J97">
         <v>3</v>
@@ -6428,7 +6425,7 @@
         <v>22</v>
       </c>
       <c r="N97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O97" t="s">
         <v>24</v>
@@ -6436,31 +6433,31 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" t="s">
+        <v>359</v>
+      </c>
+      <c r="C98" t="s">
+        <v>360</v>
+      </c>
+      <c r="D98" t="s">
         <v>413</v>
       </c>
-      <c r="B98" t="s">
-        <v>360</v>
-      </c>
-      <c r="C98" t="s">
-        <v>361</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>414</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
+        <v>413</v>
+      </c>
+      <c r="G98" t="s">
+        <v>414</v>
+      </c>
+      <c r="H98" t="s">
+        <v>301</v>
+      </c>
+      <c r="I98" t="s">
         <v>415</v>
-      </c>
-      <c r="F98" t="s">
-        <v>414</v>
-      </c>
-      <c r="G98" t="s">
-        <v>415</v>
-      </c>
-      <c r="H98" t="s">
-        <v>302</v>
-      </c>
-      <c r="I98" t="s">
-        <v>416</v>
       </c>
       <c r="J98">
         <v>4</v>
@@ -6475,7 +6472,7 @@
         <v>22</v>
       </c>
       <c r="N98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O98" t="s">
         <v>24</v>
@@ -6483,31 +6480,31 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>416</v>
+      </c>
+      <c r="B99" t="s">
+        <v>359</v>
+      </c>
+      <c r="C99" t="s">
+        <v>360</v>
+      </c>
+      <c r="D99" t="s">
         <v>417</v>
       </c>
-      <c r="B99" t="s">
-        <v>360</v>
-      </c>
-      <c r="C99" t="s">
-        <v>361</v>
-      </c>
-      <c r="D99" t="s">
-        <v>418</v>
-      </c>
       <c r="E99" t="s">
+        <v>414</v>
+      </c>
+      <c r="F99" t="s">
+        <v>417</v>
+      </c>
+      <c r="G99" t="s">
+        <v>414</v>
+      </c>
+      <c r="H99" t="s">
+        <v>298</v>
+      </c>
+      <c r="I99" t="s">
         <v>415</v>
-      </c>
-      <c r="F99" t="s">
-        <v>418</v>
-      </c>
-      <c r="G99" t="s">
-        <v>415</v>
-      </c>
-      <c r="H99" t="s">
-        <v>299</v>
-      </c>
-      <c r="I99" t="s">
-        <v>416</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -6522,7 +6519,7 @@
         <v>22</v>
       </c>
       <c r="N99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O99" t="s">
         <v>24</v>
@@ -6530,31 +6527,31 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100" t="s">
+        <v>359</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" t="s">
+        <v>417</v>
+      </c>
+      <c r="E100" t="s">
+        <v>250</v>
+      </c>
+      <c r="F100" t="s">
+        <v>417</v>
+      </c>
+      <c r="G100" t="s">
+        <v>250</v>
+      </c>
+      <c r="H100" t="s">
+        <v>298</v>
+      </c>
+      <c r="I100" t="s">
         <v>419</v>
-      </c>
-      <c r="B100" t="s">
-        <v>360</v>
-      </c>
-      <c r="C100" t="s">
-        <v>361</v>
-      </c>
-      <c r="D100" t="s">
-        <v>418</v>
-      </c>
-      <c r="E100" t="s">
-        <v>251</v>
-      </c>
-      <c r="F100" t="s">
-        <v>418</v>
-      </c>
-      <c r="G100" t="s">
-        <v>251</v>
-      </c>
-      <c r="H100" t="s">
-        <v>299</v>
-      </c>
-      <c r="I100" t="s">
-        <v>420</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -6569,7 +6566,7 @@
         <v>22</v>
       </c>
       <c r="N100" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O100" t="s">
         <v>24</v>
@@ -6577,31 +6574,31 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B101" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" t="s">
         <v>360</v>
       </c>
-      <c r="C101" t="s">
-        <v>361</v>
-      </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H101" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J101">
         <v>4</v>
@@ -6616,7 +6613,7 @@
         <v>22</v>
       </c>
       <c r="N101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O101" t="s">
         <v>24</v>
@@ -6624,31 +6621,31 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B102" t="s">
+        <v>359</v>
+      </c>
+      <c r="C102" t="s">
         <v>360</v>
       </c>
-      <c r="C102" t="s">
-        <v>361</v>
-      </c>
       <c r="D102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H102" t="s">
         <v>38</v>
       </c>
       <c r="I102" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -6663,7 +6660,7 @@
         <v>22</v>
       </c>
       <c r="N102" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O102" t="s">
         <v>24</v>
@@ -6671,31 +6668,31 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>423</v>
+      </c>
+      <c r="B103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C103" t="s">
+        <v>360</v>
+      </c>
+      <c r="D103" t="s">
+        <v>402</v>
+      </c>
+      <c r="E103" t="s">
         <v>424</v>
       </c>
-      <c r="B103" t="s">
-        <v>360</v>
-      </c>
-      <c r="C103" t="s">
-        <v>361</v>
-      </c>
-      <c r="D103" t="s">
-        <v>403</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
+        <v>402</v>
+      </c>
+      <c r="G103" t="s">
+        <v>424</v>
+      </c>
+      <c r="H103" t="s">
+        <v>276</v>
+      </c>
+      <c r="I103" t="s">
         <v>425</v>
-      </c>
-      <c r="F103" t="s">
-        <v>403</v>
-      </c>
-      <c r="G103" t="s">
-        <v>425</v>
-      </c>
-      <c r="H103" t="s">
-        <v>277</v>
-      </c>
-      <c r="I103" t="s">
-        <v>426</v>
       </c>
       <c r="J103">
         <v>4</v>
@@ -6710,7 +6707,7 @@
         <v>22</v>
       </c>
       <c r="N103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O103" t="s">
         <v>24</v>
@@ -6718,31 +6715,31 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>426</v>
+      </c>
+      <c r="B104" t="s">
         <v>427</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>353</v>
+      </c>
+      <c r="D104" t="s">
         <v>428</v>
       </c>
-      <c r="C104" t="s">
-        <v>354</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>429</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
+        <v>428</v>
+      </c>
+      <c r="G104" t="s">
+        <v>429</v>
+      </c>
+      <c r="H104" t="s">
         <v>430</v>
       </c>
-      <c r="F104" t="s">
-        <v>429</v>
-      </c>
-      <c r="G104" t="s">
-        <v>430</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>431</v>
-      </c>
-      <c r="I104" t="s">
-        <v>432</v>
       </c>
       <c r="J104">
         <v>16</v>
@@ -6757,7 +6754,7 @@
         <v>22</v>
       </c>
       <c r="N104" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O104" t="s">
         <v>24</v>
@@ -6765,31 +6762,31 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>433</v>
+      </c>
+      <c r="B105" t="s">
+        <v>377</v>
+      </c>
+      <c r="C105" t="s">
+        <v>378</v>
+      </c>
+      <c r="D105" t="s">
         <v>434</v>
       </c>
-      <c r="B105" t="s">
-        <v>378</v>
-      </c>
-      <c r="C105" t="s">
-        <v>379</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>435</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
+        <v>434</v>
+      </c>
+      <c r="G105" t="s">
+        <v>435</v>
+      </c>
+      <c r="H105" t="s">
         <v>436</v>
       </c>
-      <c r="F105" t="s">
-        <v>435</v>
-      </c>
-      <c r="G105" t="s">
-        <v>436</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>437</v>
-      </c>
-      <c r="I105" t="s">
-        <v>438</v>
       </c>
       <c r="J105">
         <v>6</v>
@@ -6804,7 +6801,7 @@
         <v>22</v>
       </c>
       <c r="N105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O105" t="s">
         <v>24</v>
@@ -6812,31 +6809,31 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B106" t="s">
+        <v>377</v>
+      </c>
+      <c r="C106" t="s">
         <v>378</v>
-      </c>
-      <c r="C106" t="s">
-        <v>379</v>
       </c>
       <c r="D106" t="s">
         <v>34</v>
       </c>
       <c r="E106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F106" t="s">
         <v>34</v>
       </c>
       <c r="G106" t="s">
+        <v>439</v>
+      </c>
+      <c r="H106" t="s">
         <v>440</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>441</v>
-      </c>
-      <c r="I106" t="s">
-        <v>442</v>
       </c>
       <c r="J106">
         <v>6</v>
@@ -6851,7 +6848,7 @@
         <v>22</v>
       </c>
       <c r="N106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O106" t="s">
         <v>24</v>
@@ -6859,31 +6856,31 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>442</v>
+      </c>
+      <c r="B107" t="s">
         <v>443</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>444</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>445</v>
-      </c>
-      <c r="D107" t="s">
-        <v>446</v>
       </c>
       <c r="E107" t="s">
         <v>133</v>
       </c>
       <c r="F107" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G107" t="s">
         <v>133</v>
       </c>
       <c r="H107" t="s">
+        <v>446</v>
+      </c>
+      <c r="I107" t="s">
         <v>447</v>
-      </c>
-      <c r="I107" t="s">
-        <v>448</v>
       </c>
       <c r="J107">
         <v>6</v>
@@ -6898,7 +6895,7 @@
         <v>128</v>
       </c>
       <c r="N107" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O107" t="s">
         <v>24</v>
@@ -6906,13 +6903,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>448</v>
+      </c>
+      <c r="B108" t="s">
         <v>449</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>450</v>
-      </c>
-      <c r="C108" t="s">
-        <v>451</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -6927,10 +6924,10 @@
         <v>86</v>
       </c>
       <c r="H108" t="s">
+        <v>451</v>
+      </c>
+      <c r="I108" t="s">
         <v>452</v>
-      </c>
-      <c r="I108" t="s">
-        <v>453</v>
       </c>
       <c r="J108">
         <v>4</v>
@@ -6945,7 +6942,7 @@
         <v>22</v>
       </c>
       <c r="N108" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O108" t="s">
         <v>24</v>
@@ -6953,31 +6950,31 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>454</v>
+      </c>
+      <c r="B109" t="s">
         <v>455</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>456</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>457</v>
-      </c>
-      <c r="D109" t="s">
-        <v>458</v>
       </c>
       <c r="E109" t="s">
         <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G109" t="s">
         <v>206</v>
       </c>
       <c r="H109" t="s">
+        <v>458</v>
+      </c>
+      <c r="I109" t="s">
         <v>459</v>
-      </c>
-      <c r="I109" t="s">
-        <v>460</v>
       </c>
       <c r="J109">
         <v>11</v>
@@ -6992,7 +6989,7 @@
         <v>128</v>
       </c>
       <c r="N109" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O109" t="s">
         <v>24</v>
@@ -7000,31 +6997,31 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>460</v>
+      </c>
+      <c r="B110" t="s">
         <v>461</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>462</v>
       </c>
-      <c r="C110" t="s">
-        <v>463</v>
-      </c>
       <c r="D110" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E110" t="s">
         <v>89</v>
       </c>
       <c r="F110" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G110" t="s">
         <v>89</v>
       </c>
       <c r="H110" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I110" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J110">
         <v>11</v>
@@ -7039,7 +7036,7 @@
         <v>128</v>
       </c>
       <c r="N110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O110" t="s">
         <v>24</v>
@@ -7047,7 +7044,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B111" t="s">
         <v>183</v>
@@ -7056,22 +7053,22 @@
         <v>184</v>
       </c>
       <c r="D111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E111" t="s">
+        <v>465</v>
+      </c>
+      <c r="F111" t="s">
+        <v>417</v>
+      </c>
+      <c r="G111" t="s">
+        <v>465</v>
+      </c>
+      <c r="H111" t="s">
         <v>466</v>
       </c>
-      <c r="F111" t="s">
-        <v>418</v>
-      </c>
-      <c r="G111" t="s">
-        <v>466</v>
-      </c>
-      <c r="H111" t="s">
-        <v>467</v>
-      </c>
       <c r="I111" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -7094,31 +7091,31 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>467</v>
+      </c>
+      <c r="B112" t="s">
         <v>468</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>469</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>470</v>
-      </c>
-      <c r="D112" t="s">
-        <v>471</v>
       </c>
       <c r="E112" t="s">
         <v>169</v>
       </c>
       <c r="F112" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G112" t="s">
         <v>169</v>
       </c>
       <c r="H112" t="s">
+        <v>470</v>
+      </c>
+      <c r="I112" t="s">
         <v>471</v>
-      </c>
-      <c r="I112" t="s">
-        <v>472</v>
       </c>
       <c r="J112">
         <v>2</v>
@@ -7133,7 +7130,7 @@
         <v>22</v>
       </c>
       <c r="N112" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O112" t="s">
         <v>24</v>
@@ -7141,31 +7138,31 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>473</v>
+      </c>
+      <c r="B113" t="s">
+        <v>468</v>
+      </c>
+      <c r="C113" t="s">
+        <v>469</v>
+      </c>
+      <c r="D113" t="s">
         <v>474</v>
-      </c>
-      <c r="B113" t="s">
-        <v>469</v>
-      </c>
-      <c r="C113" t="s">
-        <v>470</v>
-      </c>
-      <c r="D113" t="s">
-        <v>475</v>
       </c>
       <c r="E113" t="s">
         <v>169</v>
       </c>
       <c r="F113" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G113" t="s">
         <v>169</v>
       </c>
       <c r="H113" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I113" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -7180,7 +7177,7 @@
         <v>22</v>
       </c>
       <c r="N113" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O113" t="s">
         <v>24</v>
@@ -7188,28 +7185,28 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B114" t="s">
+        <v>468</v>
+      </c>
+      <c r="C114" t="s">
         <v>469</v>
       </c>
-      <c r="C114" t="s">
-        <v>470</v>
-      </c>
       <c r="D114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E114" t="s">
         <v>65</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G114" t="s">
         <v>65</v>
       </c>
       <c r="H114" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I114" t="s">
         <v>65</v>
@@ -7227,7 +7224,7 @@
         <v>22</v>
       </c>
       <c r="N114" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O114" t="s">
         <v>24</v>
@@ -7235,13 +7232,13 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B115" t="s">
+        <v>468</v>
+      </c>
+      <c r="C115" t="s">
         <v>469</v>
-      </c>
-      <c r="C115" t="s">
-        <v>470</v>
       </c>
       <c r="D115" t="s">
         <v>145</v>
@@ -7256,7 +7253,7 @@
         <v>65</v>
       </c>
       <c r="H115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I115" t="s">
         <v>65</v>
@@ -7274,7 +7271,7 @@
         <v>22</v>
       </c>
       <c r="N115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O115" t="s">
         <v>24</v>
@@ -7282,31 +7279,31 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>479</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" t="s">
         <v>480</v>
       </c>
-      <c r="B116" t="s">
-        <v>243</v>
-      </c>
-      <c r="C116" t="s">
-        <v>244</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>481</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
+        <v>480</v>
+      </c>
+      <c r="G116" t="s">
+        <v>481</v>
+      </c>
+      <c r="H116" t="s">
+        <v>480</v>
+      </c>
+      <c r="I116" t="s">
         <v>482</v>
-      </c>
-      <c r="F116" t="s">
-        <v>481</v>
-      </c>
-      <c r="G116" t="s">
-        <v>482</v>
-      </c>
-      <c r="H116" t="s">
-        <v>481</v>
-      </c>
-      <c r="I116" t="s">
-        <v>483</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -7321,7 +7318,7 @@
         <v>22</v>
       </c>
       <c r="N116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O116" t="s">
         <v>24</v>
@@ -7329,31 +7326,31 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>483</v>
+      </c>
+      <c r="B117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" t="s">
         <v>484</v>
       </c>
-      <c r="B117" t="s">
-        <v>243</v>
-      </c>
-      <c r="C117" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>485</v>
       </c>
-      <c r="E117" t="s">
-        <v>486</v>
-      </c>
       <c r="F117" t="s">
+        <v>484</v>
+      </c>
+      <c r="G117" t="s">
         <v>485</v>
       </c>
-      <c r="G117" t="s">
-        <v>486</v>
-      </c>
       <c r="H117" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I117" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -7368,7 +7365,7 @@
         <v>22</v>
       </c>
       <c r="N117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O117" t="s">
         <v>24</v>
@@ -7376,31 +7373,31 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>486</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" t="s">
         <v>487</v>
       </c>
-      <c r="B118" t="s">
-        <v>243</v>
-      </c>
-      <c r="C118" t="s">
-        <v>244</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>488</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
+        <v>487</v>
+      </c>
+      <c r="G118" t="s">
+        <v>488</v>
+      </c>
+      <c r="H118" t="s">
+        <v>487</v>
+      </c>
+      <c r="I118" t="s">
         <v>489</v>
-      </c>
-      <c r="F118" t="s">
-        <v>488</v>
-      </c>
-      <c r="G118" t="s">
-        <v>489</v>
-      </c>
-      <c r="H118" t="s">
-        <v>488</v>
-      </c>
-      <c r="I118" t="s">
-        <v>490</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -7415,7 +7412,7 @@
         <v>22</v>
       </c>
       <c r="N118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O118" t="s">
         <v>24</v>
@@ -7423,31 +7420,31 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" t="s">
         <v>243</v>
       </c>
-      <c r="C119" t="s">
-        <v>244</v>
-      </c>
       <c r="D119" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E119" t="s">
+        <v>481</v>
+      </c>
+      <c r="F119" t="s">
+        <v>488</v>
+      </c>
+      <c r="G119" t="s">
+        <v>481</v>
+      </c>
+      <c r="H119" t="s">
+        <v>488</v>
+      </c>
+      <c r="I119" t="s">
         <v>482</v>
-      </c>
-      <c r="F119" t="s">
-        <v>489</v>
-      </c>
-      <c r="G119" t="s">
-        <v>482</v>
-      </c>
-      <c r="H119" t="s">
-        <v>489</v>
-      </c>
-      <c r="I119" t="s">
-        <v>483</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -7462,7 +7459,7 @@
         <v>22</v>
       </c>
       <c r="N119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O119" t="s">
         <v>24</v>
@@ -7470,7 +7467,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B120" t="s">
         <v>54</v>

--- a/Electronics/PickAndPlace_LaserMonitorV1.xlsx
+++ b/Electronics/PickAndPlace_LaserMonitorV1.xlsx
@@ -634,6 +634,9 @@
     <t>89.408mm</t>
   </si>
   <si>
+    <t>CN5</t>
+  </si>
+  <si>
     <t>DS1038-15FBNSiA74-0CC</t>
   </si>
   <si>
@@ -647,9 +650,6 @@
   </si>
   <si>
     <t>144.018mm</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>L1</t>
@@ -3989,31 +3989,31 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
         <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J46">
         <v>17</v>
@@ -4028,10 +4028,10 @@
         <v>128</v>
       </c>
       <c r="N46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O46" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -7194,13 +7194,13 @@
         <v>469</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
         <v>65</v>
       </c>
       <c r="F114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G114" t="s">
         <v>65</v>
